--- a/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7344234168151419</v>
+        <v>0.7344234168151418</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.7543863842117905</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6833141485034366</v>
+        <v>0.6858972936622223</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.714520291267812</v>
+        <v>0.7213695760098278</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.715906746059023</v>
+        <v>0.7114888203339713</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7816622532468506</v>
+        <v>0.7803781638544508</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7869848675015995</v>
+        <v>0.7864064545374799</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7741981929385358</v>
+        <v>0.7722426024766293</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6755421642505923</v>
+        <v>0.683109432338631</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7329189947958641</v>
+        <v>0.732291765017867</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7206133369053118</v>
+        <v>0.7197319929043623</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7662466348210402</v>
+        <v>0.7717398891594545</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8028924401259896</v>
+        <v>0.7998171680059005</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.777558863037113</v>
+        <v>0.7745922428985339</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.711948812551181</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7063418003903412</v>
+        <v>0.7063418003903411</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.7091808745390001</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6483183421938845</v>
+        <v>0.6524302886533316</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.656569346365294</v>
+        <v>0.6541789198841426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6718483714765717</v>
+        <v>0.669820108701797</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.764421038086479</v>
+        <v>0.7650130241720203</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7513361633505878</v>
+        <v>0.7522807319672981</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7437520540609299</v>
+        <v>0.7435005435797092</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7756704136222643</v>
+        <v>0.7756704136222642</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.8139750853440514</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7960059968692587</v>
+        <v>0.7960059968692589</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7362118475711431</v>
+        <v>0.7352814429846898</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.783603090016767</v>
+        <v>0.7846768451830554</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7719173414493351</v>
+        <v>0.7721066565317939</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8153260272760009</v>
+        <v>0.8113247326367089</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.839971248604325</v>
+        <v>0.8434491945040052</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8172869711696646</v>
+        <v>0.8177017331276888</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7391308074158979</v>
+        <v>0.7391308074158978</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7682080722432895</v>
+        <v>0.7682080722432894</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7538896770469371</v>
+        <v>0.7538896770469369</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7147792447107179</v>
+        <v>0.7157166909780817</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7509931608611562</v>
+        <v>0.7504559014991976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7363759363893422</v>
+        <v>0.7378571229659471</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7620364477471089</v>
+        <v>0.7623161385811974</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7855810734562493</v>
+        <v>0.7865822933946219</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7664979302874482</v>
+        <v>0.767269711306067</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>257890</v>
+        <v>258864</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>272512</v>
+        <v>275125</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>543231</v>
+        <v>539879</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>295007</v>
+        <v>294523</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>300150</v>
+        <v>299929</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>587463</v>
+        <v>585979</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>362754</v>
+        <v>366817</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>388664</v>
+        <v>388331</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>769095</v>
+        <v>768154</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>411461</v>
+        <v>414410</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>425771</v>
+        <v>424140</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>829871</v>
+        <v>826705</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>242633</v>
+        <v>244172</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>239564</v>
+        <v>238692</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>496579</v>
+        <v>495079</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>286085</v>
+        <v>286306</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>274142</v>
+        <v>274487</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>549724</v>
+        <v>549538</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>377259</v>
+        <v>376782</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>454427</v>
+        <v>455050</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>843206</v>
+        <v>843413</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>417800</v>
+        <v>415750</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>487116</v>
+        <v>489133</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>892766</v>
+        <v>893219</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1287371</v>
+        <v>1289059</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1394205</v>
+        <v>1393207</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2693335</v>
+        <v>2698753</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1372485</v>
+        <v>1372989</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1458416</v>
+        <v>1460275</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2803508</v>
+        <v>2806331</v>
       </c>
     </row>
     <row r="24">
